--- a/biology/Neurosciences/Voie_spinothalamique/Voie_spinothalamique.xlsx
+++ b/biology/Neurosciences/Voie_spinothalamique/Voie_spinothalamique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En neuroanatomie, la voie spinothalamique (anciennement voie extra-lemniscale, on ne parle plus de extra-lemniscal car cette voie passe par le lemnisque médian) est la voie nerveuse sensitive responsable de la sensibilité thermo-algique (faisceau néo-spinothalamique) et du tact protopathique (faisceau paléo-spinothalamique).
 La lésion de la voie se traduit par une anesthésie thermo-algique et une non-reconnaissance du tact non discriminatif, du côté controlatéral (du fait de la décussation) et à un niveau en dessous.
@@ -512,7 +524,9 @@
           <t>Structure anatomique et fonctionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système spino-thalamique constitue une voie qui :
 part de l’apex de la corne dorsale de la moelle faisant suite aux protoneurones périphériques de la voie
@@ -554,7 +568,9 @@
           <t>Sémiologie et aspects cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il résulte d’une lésion du faisceau spino-thalamique, une anesthésie douloureuse et thermique dans l’hémicorps controlatéral et sous-jacent à l’atteinte. En revanche, la sensibilité tactile, le sens de position, la pallesthésie sont conservés. Ce syndrome peut être obtenu par une cordotomie (en) antérolatérale qui est parfois pratiquée pour traiter les douleurs rebelles d’affections incurables.
 L’examen des troubles sensitifs repose sur l’étude de la perception du tact élémentaire (protopathique), de la douleur et de la température.
